--- a/data/long_dif/P24_9-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_9-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,27 +651,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,22 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,28</t>
+          <t>2,66; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,62</t>
+          <t>6,92; 12,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,27</t>
+          <t>6,42; 12,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,21</t>
+          <t>5,88; 11,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,89</t>
+          <t>5,95; 11,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,73</t>
+          <t>6,14; 10,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,09</t>
+          <t>8,26; 12,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,02</t>
+          <t>5,99; 11,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,27</t>
+          <t>4,76; 7,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 10,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 11,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 10,67</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,61%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>84,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>76,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,96; 89,36</t>
+          <t>82,7; 89,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,46; 83,46</t>
+          <t>74,03; 84,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,46; 85,75</t>
+          <t>77,69; 86,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,74; 85,88</t>
+          <t>70,6; 80,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,28; 83,41</t>
+          <t>78,94; 85,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,82; 82,31</t>
+          <t>75,78; 83,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,01; 86,9</t>
+          <t>75,2; 81,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,61; 82,74</t>
+          <t>72,19; 80,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,43; 83,13</t>
+          <t>81,67; 86,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76,24; 82,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77,54; 82,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72,71; 79,44</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,21</t>
+          <t>7,18; 12,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 16,26</t>
+          <t>7,48; 16,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,38</t>
+          <t>6,4; 12,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,75</t>
+          <t>11,71; 20,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 15,09</t>
+          <t>7,07; 12,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,64</t>
+          <t>9,38; 15,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,33</t>
+          <t>8,81; 13,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,6</t>
+          <t>12,08; 19,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,16</t>
+          <t>7,75; 11,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 14,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,24; 11,98</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 18,25</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 16,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,62; 90,73</t>
+          <t>1,87; 8,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,72; 82,52</t>
+          <t>7,5; 19,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,1; 82,0</t>
+          <t>6,87; 12,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,33; 86,0</t>
+          <t>6,41; 15,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,94; 85,17</t>
+          <t>6,59; 15,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,15; 84,49</t>
+          <t>6,35; 12,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,23; 87,08</t>
+          <t>6,82; 12,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,01; 82,78</t>
+          <t>6,17; 12,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,06; 82,61</t>
+          <t>4,58; 9,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 14,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 11,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 12,54</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>80,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>83,24%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>79,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74,17%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 18,12</t>
+          <t>77,18; 89,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 15,4</t>
+          <t>70,23; 82,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 18,55</t>
+          <t>72,14; 82,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,98</t>
+          <t>70,37; 81,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,48</t>
+          <t>75,22; 84,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,29</t>
+          <t>76,79; 85,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,54</t>
+          <t>76,67; 84,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,79</t>
+          <t>65,98; 77,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 14,55</t>
+          <t>78,89; 86,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74,69; 82,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 82,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>69,72; 77,68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>7,2; 18,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 13,82</t>
+          <t>7,0; 15,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 13,45</t>
+          <t>8,63; 18,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,93</t>
+          <t>9,21; 18,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 21,08</t>
+          <t>6,45; 12,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 17,31</t>
+          <t>6,86; 13,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,46</t>
+          <t>7,7; 14,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,67</t>
+          <t>15,1; 25,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,58</t>
+          <t>7,63; 14,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 14,81</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 20,23</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>80,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>85,56; 96,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>77,31; 92,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,48; 91,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,81; 88,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,82; 83,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,86; 86,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>81,65; 91,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,98; 86,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>77,69; 87,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>9,84%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 13,45</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 14,35</t>
+          <t>3,22; 15,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,04; 15,03</t>
+          <t>2,92; 14,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,11</t>
+          <t>1,4; 10,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 18,73</t>
+          <t>1,54; 8,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 16,56</t>
+          <t>6,75; 20,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,52</t>
+          <t>5,7; 17,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,25</t>
+          <t>5,23; 17,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,95</t>
+          <t>1,16; 5,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 15,5</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 13,1</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 11,26</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>86,89%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>81,35%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>82,83%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,69</t>
+          <t>84,12; 96,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,14</t>
+          <t>77,0; 93,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,31</t>
+          <t>77,53; 91,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,31</t>
+          <t>75,86; 92,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,07</t>
+          <t>75,05; 89,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,46</t>
+          <t>65,39; 83,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,23</t>
+          <t>72,1; 86,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,43</t>
+          <t>70,82; 86,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,02; 10,61</t>
+          <t>81,05; 90,96</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>74,44; 86,74</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>77,94; 88,06</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>76,38; 88,25</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>79,72%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>83,17; 89,28</t>
+          <t>3,37; 15,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>74,71; 82,44</t>
+          <t>2,27; 13,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>77,36; 83,55</t>
+          <t>3,28; 12,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>79,88; 84,77</t>
+          <t>3,7; 19,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>77,43; 82,35</t>
+          <t>7,67; 20,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>77,5; 82,16</t>
+          <t>6,23; 20,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>82,57; 86,47</t>
+          <t>5,24; 16,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>77,11; 81,87</t>
+          <t>5,39; 17,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>78,38; 82,15</t>
+          <t>7,06; 16,28</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 13,98</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 12,72</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 15,17</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,92</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>8,28; 14,05</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 11,25</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 11,37</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 10,47</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 10,97</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 11,67</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 10,81</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 7,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 11,67</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>8,24; 10,8</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 10,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>86,37%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>81,14%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>79,52%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>74,99%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>84,15%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>79,8%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>80,31%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>76,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>82,87; 88,79</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>75,08; 82,76</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>77,92; 83,85</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>73,53; 80,82</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>79,26; 84,33</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>77,24; 82,37</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>76,99; 81,77</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>71,61; 78,08</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>82,01; 85,83</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 81,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>78,46; 82,06</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>73,9; 78,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 13,18</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,35</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 12,85</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 17,0</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 11,62</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 13,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 12,73</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 19,5</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 11,52</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 12,54</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 11,93</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 17,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
